--- a/uScript_Dev/Documents/Kismet_Node_Checklist.xlsx
+++ b/uScript_Dev/Documents/Kismet_Node_Checklist.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="21075" windowHeight="9525"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Nodes" sheetId="1" r:id="rId1"/>
+    <sheet name="Events" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="241">
   <si>
     <t>Actors</t>
   </si>
@@ -670,13 +669,82 @@
   </si>
   <si>
     <t>Physics\uScriptAct_Raycast.cs</t>
+  </si>
+  <si>
+    <t>&lt;- We should look into writing nodes for Unity's broadcast message system</t>
+  </si>
+  <si>
+    <t>&lt;-- I'm doing one now for the video</t>
+  </si>
+  <si>
+    <t>&lt;--- don''t remember why this is red…</t>
+  </si>
+  <si>
+    <t>&lt;--- here is that array/list stuff I was talking about at lunch. Stuff like this for our Arrays would be very helpful.</t>
+  </si>
+  <si>
+    <t>&lt;--- not sure what Unity would do here</t>
+  </si>
+  <si>
+    <t>uScriptAct_PlaySound.cs</t>
+  </si>
+  <si>
+    <t>&lt;--- something to set reverds or something. Need to know Sound system.</t>
+  </si>
+  <si>
+    <t>&lt;---/</t>
+  </si>
+  <si>
+    <t>&lt;---\</t>
+  </si>
+  <si>
+    <t>&lt;---- A node that would only send the signal one depending on the target platfor(s) you want to fire the logic on might be nice.</t>
+  </si>
+  <si>
+    <t>On Awake</t>
+  </si>
+  <si>
+    <t>On Level Loaded</t>
+  </si>
+  <si>
+    <t>Load Scene</t>
+  </si>
+  <si>
+    <t>Assign Tag (to GameObject)</t>
+  </si>
+  <si>
+    <t>Control Particle effects</t>
+  </si>
+  <si>
+    <t>NON KISMET NODE IDEAS</t>
+  </si>
+  <si>
+    <t>Look through the script reference, a TON of good ideas for nodes. Maybe look for ones that are important first.</t>
+  </si>
+  <si>
+    <t>SEE 2ND SHEET FOR EVENTS!</t>
+  </si>
+  <si>
+    <t>Event Ideas</t>
+  </si>
+  <si>
+    <t>On Fixed Update</t>
+  </si>
+  <si>
+    <t>On Start</t>
+  </si>
+  <si>
+    <t>On Collision</t>
+  </si>
+  <si>
+    <t>Camera based nodes?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,8 +760,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +800,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -737,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -782,6 +870,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J172"/>
+  <dimension ref="B2:M184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="O92" sqref="O92"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1092,21 +1186,23 @@
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="39.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10">
       <c r="C3" s="4" t="s">
@@ -1306,7 +1402,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:12">
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -1316,23 +1412,25 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:12">
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="2:12">
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="2:12">
       <c r="D20" t="s">
         <v>15</v>
       </c>
@@ -1342,7 +1440,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:12">
       <c r="D21" t="s">
         <v>16</v>
       </c>
@@ -1356,7 +1454,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:12">
       <c r="D22" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1464,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:12">
       <c r="D23" t="s">
         <v>18</v>
       </c>
@@ -1380,37 +1478,37 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:12">
       <c r="I24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:12">
       <c r="I25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:12">
       <c r="I26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:12">
       <c r="I27" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:12">
       <c r="I28" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:12">
       <c r="I29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:12">
       <c r="B30" s="14"/>
       <c r="C30" s="14" t="s">
         <v>19</v>
@@ -1424,21 +1522,21 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:12">
       <c r="D31" t="s">
         <v>20</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:12">
       <c r="D32" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:12">
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
         <v>22</v>
@@ -1455,22 +1553,25 @@
       <c r="I33" s="15"/>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:12">
       <c r="D34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="2:12">
       <c r="D35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="2:12">
       <c r="D36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="2:12">
       <c r="D37" t="s">
         <v>26</v>
       </c>
@@ -1484,12 +1585,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:12">
       <c r="D38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="L38" s="22"/>
+    </row>
+    <row r="39" spans="2:12">
       <c r="D39" t="s">
         <v>28</v>
       </c>
@@ -1499,7 +1601,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:12">
       <c r="D40" t="s">
         <v>29</v>
       </c>
@@ -1513,7 +1615,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:12">
       <c r="C41" s="1" t="s">
         <v>30</v>
       </c>
@@ -1525,14 +1627,14 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:12">
       <c r="D42" t="s">
         <v>31</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:12">
       <c r="C43" s="1" t="s">
         <v>32</v>
       </c>
@@ -1544,14 +1646,14 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:12">
       <c r="D44" t="s">
         <v>33</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:12">
       <c r="C45" s="1" t="s">
         <v>34</v>
       </c>
@@ -1563,21 +1665,21 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:12">
       <c r="D46" t="s">
         <v>35</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:12">
       <c r="D47" t="s">
         <v>36</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:12">
       <c r="C48" s="1" t="s">
         <v>37</v>
       </c>
@@ -1589,7 +1691,7 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:13">
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
         <v>38</v>
@@ -1606,22 +1708,28 @@
       <c r="I49" s="15"/>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:13">
       <c r="D50" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="L50" s="21"/>
+      <c r="M50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
       <c r="D51" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="2:13">
       <c r="I52" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:13">
       <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
         <v>41</v>
@@ -1638,37 +1746,49 @@
       <c r="I53" s="15"/>
       <c r="J53" s="17"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:13">
       <c r="D54" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="2:13">
       <c r="D55" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="2:13">
       <c r="D56" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="2:13">
       <c r="D57" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="2:13">
       <c r="D58" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="2:13">
       <c r="D59" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="2:13">
       <c r="C60" s="1" t="s">
         <v>48</v>
       </c>
@@ -1678,12 +1798,14 @@
       <c r="F60" s="5"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:13">
       <c r="D61" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="2:13">
       <c r="B62" s="14"/>
       <c r="C62" s="14" t="s">
         <v>50</v>
@@ -1700,7 +1822,7 @@
       <c r="I62" s="15"/>
       <c r="J62" s="17"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:13">
       <c r="D63" t="s">
         <v>51</v>
       </c>
@@ -1714,7 +1836,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:13">
       <c r="D64" t="s">
         <v>52</v>
       </c>
@@ -1898,42 +2020,42 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:13">
       <c r="I81" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:13">
       <c r="I82" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:13">
       <c r="I83" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:13">
       <c r="I84" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:13">
       <c r="I85" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:13">
       <c r="I86" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:13">
       <c r="I87" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:13">
       <c r="B88" s="14"/>
       <c r="C88" s="14" t="s">
         <v>63</v>
@@ -1950,12 +2072,12 @@
       <c r="I88" s="15"/>
       <c r="J88" s="17"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:13">
       <c r="D89" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:13">
       <c r="D90" t="s">
         <v>65</v>
       </c>
@@ -1965,7 +2087,7 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:13">
       <c r="D91" t="s">
         <v>66</v>
       </c>
@@ -1979,7 +2101,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:13">
       <c r="D92" t="s">
         <v>67</v>
       </c>
@@ -1993,22 +2115,30 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:13">
       <c r="D93" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="94" spans="2:10">
+      <c r="L93" s="21"/>
+      <c r="M93" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13">
       <c r="D94" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="95" spans="2:10">
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+    </row>
+    <row r="95" spans="2:13">
       <c r="D95" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="96" spans="2:10">
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+    </row>
+    <row r="96" spans="2:13">
       <c r="D96" t="s">
         <v>71</v>
       </c>
@@ -2018,7 +2148,7 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:13">
       <c r="D97" t="s">
         <v>72</v>
       </c>
@@ -2032,7 +2162,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:13">
       <c r="D98" t="s">
         <v>73</v>
       </c>
@@ -2046,7 +2176,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:13">
       <c r="D99" t="s">
         <v>74</v>
       </c>
@@ -2056,8 +2186,11 @@
       <c r="J99" s="19" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" spans="2:10">
+      <c r="M99" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13">
       <c r="D100" t="s">
         <v>75</v>
       </c>
@@ -2068,12 +2201,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:13">
       <c r="I101" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:13">
       <c r="B102" s="14"/>
       <c r="C102" s="14" t="s">
         <v>76</v>
@@ -2090,49 +2223,65 @@
       <c r="I102" s="15"/>
       <c r="J102" s="17"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:13">
       <c r="D103" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="104" spans="2:10">
+      <c r="L103" s="21"/>
+      <c r="M103" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13">
       <c r="D104" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="105" spans="2:10">
+      <c r="L104" s="21"/>
+      <c r="M104" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13">
       <c r="D105" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="106" spans="2:10">
+      <c r="L105" s="21"/>
+      <c r="M105" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13">
       <c r="C106" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>122</v>
+      <c r="E106" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:13">
       <c r="D107" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="108" spans="2:10">
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+    </row>
+    <row r="108" spans="2:13">
       <c r="D108" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="109" spans="2:10">
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+    </row>
+    <row r="109" spans="2:13">
       <c r="B109" s="14"/>
       <c r="C109" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="16"/>
@@ -2142,24 +2291,28 @@
       <c r="I109" s="15"/>
       <c r="J109" s="17"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:13">
       <c r="D110" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="111" spans="2:10">
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+    </row>
+    <row r="111" spans="2:13">
       <c r="D111" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="112" spans="2:10">
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+    </row>
+    <row r="112" spans="2:13">
       <c r="B112" s="14"/>
       <c r="C112" s="14" t="s">
         <v>86</v>
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="16"/>
@@ -2169,22 +2322,28 @@
       <c r="I112" s="15"/>
       <c r="J112" s="17"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:13">
       <c r="D113" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="114" spans="2:10">
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+    </row>
+    <row r="114" spans="2:13">
       <c r="D114" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="115" spans="2:10">
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+    </row>
+    <row r="115" spans="2:13">
       <c r="D115" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="116" spans="2:10">
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+    </row>
+    <row r="116" spans="2:13">
       <c r="B116" s="14"/>
       <c r="C116" s="14" t="s">
         <v>90</v>
@@ -2201,42 +2360,52 @@
       <c r="I116" s="15"/>
       <c r="J116" s="17"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:13">
       <c r="D117" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="118" spans="2:10">
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+    </row>
+    <row r="118" spans="2:13">
       <c r="D118" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="119" spans="2:10">
+      <c r="L118" s="22"/>
+      <c r="M118" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13">
       <c r="D119" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="120" spans="2:10">
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" spans="2:13">
       <c r="D120" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="121" spans="2:10">
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+    </row>
+    <row r="121" spans="2:13">
       <c r="I121" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:13">
       <c r="I122" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:13">
       <c r="I123" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:13">
       <c r="B124" s="14"/>
       <c r="C124" s="14" t="s">
         <v>95</v>
@@ -2253,7 +2422,7 @@
       <c r="I124" s="15"/>
       <c r="J124" s="17"/>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:13">
       <c r="D125" t="s">
         <v>96</v>
       </c>
@@ -2267,7 +2436,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:13">
       <c r="D126" t="s">
         <v>97</v>
       </c>
@@ -2281,7 +2450,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:13">
       <c r="D127" t="s">
         <v>98</v>
       </c>
@@ -2295,7 +2464,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:13">
       <c r="D128" t="s">
         <v>99</v>
       </c>
@@ -2309,7 +2478,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:13">
       <c r="D129" t="s">
         <v>100</v>
       </c>
@@ -2323,7 +2492,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:13">
       <c r="D130" t="s">
         <v>101</v>
       </c>
@@ -2337,12 +2506,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:13">
       <c r="I131" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:13">
       <c r="B132" s="14"/>
       <c r="C132" s="14" t="s">
         <v>102</v>
@@ -2359,32 +2528,57 @@
       <c r="I132" s="15"/>
       <c r="J132" s="17"/>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:13">
       <c r="D133" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="134" spans="2:10">
+      <c r="E133" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+    </row>
+    <row r="134" spans="2:13">
       <c r="D134" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="135" spans="2:10">
+      <c r="E134" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+    </row>
+    <row r="135" spans="2:13">
       <c r="D135" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="136" spans="2:10">
+      <c r="E135" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+    </row>
+    <row r="136" spans="2:13">
       <c r="D136" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="137" spans="2:10">
+      <c r="E136" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I136" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13">
       <c r="D137" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="138" spans="2:10">
+      <c r="L137" s="22"/>
+      <c r="M137" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13">
       <c r="B138" s="14"/>
       <c r="C138" s="14" t="s">
         <v>108</v>
@@ -2401,17 +2595,17 @@
       <c r="I138" s="15"/>
       <c r="J138" s="17"/>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:13">
       <c r="D139" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:13">
       <c r="D140" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:13">
       <c r="B141" s="14"/>
       <c r="C141" s="14" t="s">
         <v>110</v>
@@ -2428,7 +2622,7 @@
       <c r="I141" s="15"/>
       <c r="J141" s="17"/>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:13">
       <c r="D142" t="s">
         <v>110</v>
       </c>
@@ -2442,35 +2636,47 @@
         <v>121</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:13">
       <c r="D143" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="144" spans="2:10">
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+    </row>
+    <row r="144" spans="2:13">
       <c r="D144" t="s">
         <v>112</v>
       </c>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
     </row>
     <row r="145" spans="2:10">
       <c r="D145" t="s">
         <v>113</v>
       </c>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
     </row>
     <row r="146" spans="2:10">
       <c r="D146" t="s">
         <v>114</v>
       </c>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
     </row>
     <row r="147" spans="2:10">
       <c r="D147" t="s">
         <v>115</v>
       </c>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
     </row>
     <row r="148" spans="2:10">
       <c r="D148" t="s">
         <v>116</v>
       </c>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
     </row>
     <row r="150" spans="2:10">
       <c r="B150" s="8" t="s">
@@ -2596,7 +2802,7 @@
       <c r="I160" s="15"/>
       <c r="J160" s="17"/>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="2:13">
       <c r="D161" t="s">
         <v>139</v>
       </c>
@@ -2611,7 +2817,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:13">
       <c r="D162" t="s">
         <v>140</v>
       </c>
@@ -2626,7 +2832,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:13">
       <c r="D163" t="s">
         <v>141</v>
       </c>
@@ -2634,8 +2840,10 @@
         <v>121</v>
       </c>
       <c r="H163" s="1"/>
-    </row>
-    <row r="164" spans="2:10">
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+    </row>
+    <row r="164" spans="2:13">
       <c r="D164" t="s">
         <v>142</v>
       </c>
@@ -2643,8 +2851,10 @@
         <v>121</v>
       </c>
       <c r="H164" s="1"/>
-    </row>
-    <row r="165" spans="2:10">
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+    </row>
+    <row r="165" spans="2:13">
       <c r="D165" t="s">
         <v>143</v>
       </c>
@@ -2652,8 +2862,12 @@
         <v>121</v>
       </c>
       <c r="H165" s="1"/>
-    </row>
-    <row r="166" spans="2:10">
+      <c r="L165" s="21"/>
+      <c r="M165" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13">
       <c r="D166" t="s">
         <v>144</v>
       </c>
@@ -2661,8 +2875,10 @@
         <v>121</v>
       </c>
       <c r="H166" s="1"/>
-    </row>
-    <row r="167" spans="2:10">
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+    </row>
+    <row r="167" spans="2:13">
       <c r="D167" t="s">
         <v>145</v>
       </c>
@@ -2670,8 +2886,10 @@
         <v>121</v>
       </c>
       <c r="H167" s="1"/>
-    </row>
-    <row r="168" spans="2:10">
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+    </row>
+    <row r="168" spans="2:13">
       <c r="D168" t="s">
         <v>146</v>
       </c>
@@ -2679,8 +2897,10 @@
         <v>121</v>
       </c>
       <c r="H168" s="1"/>
-    </row>
-    <row r="169" spans="2:10">
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+    </row>
+    <row r="169" spans="2:13">
       <c r="B169" s="14"/>
       <c r="C169" s="14" t="s">
         <v>108</v>
@@ -2697,27 +2917,66 @@
       <c r="I169" s="15"/>
       <c r="J169" s="17"/>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:13">
       <c r="D170" t="s">
         <v>147</v>
       </c>
       <c r="H170" s="1"/>
-    </row>
-    <row r="171" spans="2:10">
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+    </row>
+    <row r="171" spans="2:13">
       <c r="D171" t="s">
         <v>148</v>
       </c>
       <c r="H171" s="1"/>
-    </row>
-    <row r="172" spans="2:10">
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+    </row>
+    <row r="172" spans="2:13">
       <c r="C172" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E172" s="5" t="s">
-        <v>122</v>
+      <c r="E172" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="F172" s="5"/>
       <c r="H172" s="1"/>
+    </row>
+    <row r="176" spans="2:13">
+      <c r="I176" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="177" spans="9:9">
+      <c r="I177" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178" spans="9:9">
+      <c r="I178" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179" spans="9:9">
+      <c r="I179" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="180" spans="9:9">
+      <c r="I180" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="181" spans="9:9">
+      <c r="I181" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="184" spans="9:9" ht="26.25">
+      <c r="I184" s="23" t="s">
+        <v>235</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2731,24 +2990,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B5:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>